--- a/target/test-classes/data/Demo5.xlsx
+++ b/target/test-classes/data/Demo5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -73,12 +73,16 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -404,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -412,7 +416,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -614,6 +618,42 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.658745633E9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52000.0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52000.0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
